--- a/faults-dingding/debugging.xlsx
+++ b/faults-dingding/debugging.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="2" r:id="rId1"/>
@@ -17,15 +17,17 @@
     <sheet name="F10" sheetId="1" r:id="rId3"/>
     <sheet name="F13" sheetId="5" r:id="rId4"/>
     <sheet name="F11" sheetId="6" r:id="rId5"/>
-    <sheet name="F5" sheetId="9" r:id="rId6"/>
-    <sheet name="F12" sheetId="10" r:id="rId7"/>
+    <sheet name="F4" sheetId="13" r:id="rId6"/>
+    <sheet name="F8" sheetId="12" r:id="rId7"/>
+    <sheet name="F5" sheetId="9" r:id="rId8"/>
+    <sheet name="F12" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="285">
   <si>
     <t>Fault</t>
   </si>
@@ -78,9 +80,6 @@
     <t>R1-5</t>
   </si>
   <si>
-    <t>R1-6</t>
-  </si>
-  <si>
     <t>R2-1</t>
   </si>
   <si>
@@ -96,9 +95,6 @@
     <t>R2-5</t>
   </si>
   <si>
-    <t>R2-6</t>
-  </si>
-  <si>
     <t>R3-1</t>
   </si>
   <si>
@@ -114,9 +110,6 @@
     <t>R3-5</t>
   </si>
   <si>
-    <t>R3-6</t>
-  </si>
-  <si>
     <t>R4-1</t>
   </si>
   <si>
@@ -132,9 +125,6 @@
     <t>R4-5</t>
   </si>
   <si>
-    <t>R4-6</t>
-  </si>
-  <si>
     <t>R5-1</t>
   </si>
   <si>
@@ -150,9 +140,6 @@
     <t>R5-5</t>
   </si>
   <si>
-    <t>R5-6</t>
-  </si>
-  <si>
     <t>R6-1</t>
   </si>
   <si>
@@ -168,9 +155,6 @@
     <t>R6-5</t>
   </si>
   <si>
-    <t>R6-6</t>
-  </si>
-  <si>
     <t>R7-1</t>
   </si>
   <si>
@@ -186,9 +170,6 @@
     <t>R7-5</t>
   </si>
   <si>
-    <t>R7-6</t>
-  </si>
-  <si>
     <t>A8(0.2h)</t>
   </si>
   <si>
@@ -207,9 +188,6 @@
     <t>R8-5</t>
   </si>
   <si>
-    <t>R8-6</t>
-  </si>
-  <si>
     <t>A9(0.2h)</t>
   </si>
   <si>
@@ -226,9 +204,6 @@
   </si>
   <si>
     <t>R9-5</t>
-  </si>
-  <si>
-    <t>R9-6</t>
   </si>
   <si>
     <t>A10(0.2h)</t>
@@ -290,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>R1-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t15(S) vs t17(F) vs t28(F) :  </t>
     </r>
@@ -319,9 +291,6 @@
     </r>
   </si>
   <si>
-    <t>R2-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t27(S) vs t21(F) vs t28(F) :  </t>
     </r>
@@ -374,9 +343,6 @@
     </r>
   </si>
   <si>
-    <t>R4-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t18(S) vs t28(F) vs t5(F) :  </t>
     </r>
@@ -429,9 +395,6 @@
     </r>
   </si>
   <si>
-    <t>R6-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t19(S) vs t26(F) vs t21(F) :  </t>
     </r>
@@ -458,9 +421,6 @@
     </r>
   </si>
   <si>
-    <t>R7-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t8(S) vs t26(F) vs t28(F) :  </t>
     </r>
@@ -487,9 +447,6 @@
     </r>
   </si>
   <si>
-    <t>R8-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t0(S) vs t5(F) vs t24(F) :  </t>
     </r>
@@ -516,9 +473,6 @@
     </r>
   </si>
   <si>
-    <t>R9-7</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">t3(S) vs t13(F) vs t17(F) :  </t>
     </r>
@@ -543,9 +497,6 @@
       </rPr>
       <t>C10</t>
     </r>
-  </si>
-  <si>
-    <t>R10-7</t>
   </si>
   <si>
     <t>A1(0.16h)</t>
@@ -2211,10 +2162,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Drawback money first, then change the order status,so the final order status is canceling not cancel.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -2560,6 +2507,160 @@
   </si>
   <si>
     <t>The payment must be finished first, so the cancel and query operation can execute correctly.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail case happends when drawback money first executed and the inside-payment service's status is equal.  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1(0.25h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(0.33h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(0.25h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4(0.2h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(0.18h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(0.2h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(0.24h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(0.22h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(0.16h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(0.15h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8-3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8-5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>annot debug just observe the zipkin trace.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10-3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2640,7 +2741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2664,6 +2765,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3001,10 +3105,10 @@
     </row>
     <row r="4" spans="2:12" ht="37.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -3016,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -3026,15 +3130,15 @@
         <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2">
         <v>7</v>
@@ -3046,22 +3150,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2">
         <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -3073,22 +3177,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2">
         <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2">
         <v>7</v>
@@ -3100,22 +3204,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2">
         <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3127,22 +3231,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -3154,22 +3258,22 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2">
         <v>12</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -3181,22 +3285,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2">
         <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -3208,22 +3312,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
         <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>
@@ -3235,22 +3339,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2">
         <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -3262,17 +3366,17 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2">
         <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3347,10 +3451,10 @@
     </row>
     <row r="4" spans="2:12" ht="47.25">
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2">
         <v>22</v>
@@ -3362,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -3372,10 +3476,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -3393,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -3411,7 +3515,7 @@
     <row r="7" spans="2:12">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2">
         <v>22</v>
@@ -3423,17 +3527,17 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2">
         <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -3450,7 +3554,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2">
         <v>22</v>
@@ -3462,17 +3566,17 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -3483,13 +3587,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -3505,7 +3609,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="C12" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D12" s="2">
         <v>22</v>
@@ -3517,17 +3621,17 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2">
         <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -3538,13 +3642,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J13" s="2">
         <v>8</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -3555,13 +3659,13 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J14" s="2">
         <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -3577,7 +3681,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2">
         <v>22</v>
@@ -3589,17 +3693,17 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2">
         <v>13</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -3615,7 +3719,7 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2">
         <v>22</v>
@@ -3627,17 +3731,17 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2">
         <v>13</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -3648,13 +3752,13 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J19" s="2">
         <v>8</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -3665,13 +3769,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J20" s="2">
         <v>8</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="3:11">
@@ -3682,13 +3786,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="J21" s="2">
         <v>12</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="3:11">
@@ -3704,7 +3808,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -3716,17 +3820,17 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J23" s="2">
         <v>13</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -3737,13 +3841,13 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J24" s="2">
         <v>8</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="3:11">
@@ -3754,13 +3858,13 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J25" s="2">
         <v>8</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="3:11">
@@ -3776,7 +3880,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2">
         <v>22</v>
@@ -3788,17 +3892,17 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J27" s="2">
         <v>13</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="3:11">
@@ -3809,13 +3913,13 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J28" s="2">
         <v>8</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="3:11">
@@ -3826,13 +3930,13 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J29" s="2">
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="3:11">
@@ -3843,13 +3947,13 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="J30" s="2">
         <v>8</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -3865,7 +3969,7 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D32" s="2">
         <v>22</v>
@@ -3877,50 +3981,50 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J32" s="2">
         <v>13</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="I33" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2">
         <v>8</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="I34" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="J34" s="2">
         <v>8</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="I35" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="J35" s="2">
         <v>16</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="3:11">
@@ -3930,7 +4034,7 @@
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2">
         <v>22</v>
@@ -3942,17 +4046,17 @@
         <v>6</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J37" s="2">
         <v>13</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="3:11">
@@ -3963,13 +4067,13 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J38" s="2">
         <v>12</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="3:11">
@@ -3980,46 +4084,46 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J39" s="2">
         <v>8</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="I40" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J40" s="2">
         <v>4</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="3:11">
       <c r="I41" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J41" s="2">
         <v>8</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="I42" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J42" s="2">
         <v>20</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4032,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4099,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2">
         <v>16</v>
@@ -4111,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -4142,7 +4246,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4196,7 +4300,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2">
         <v>16</v>
@@ -4208,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2">
         <v>16</v>
@@ -4222,7 +4326,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2">
         <v>5</v>
@@ -4233,7 +4337,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2">
         <v>12</v>
@@ -4244,7 +4348,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2">
         <v>4</v>
@@ -4255,7 +4359,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="I14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2">
         <v>18</v>
@@ -4266,7 +4370,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2">
         <v>16</v>
@@ -4278,10 +4382,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
         <v>16</v>
@@ -4292,7 +4396,7 @@
     </row>
     <row r="17" spans="3:11">
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
@@ -4303,7 +4407,7 @@
     </row>
     <row r="18" spans="3:11">
       <c r="I18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2">
         <v>12</v>
@@ -4314,7 +4418,7 @@
     </row>
     <row r="19" spans="3:11">
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2">
         <v>4</v>
@@ -4325,7 +4429,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2">
         <v>18</v>
@@ -4336,7 +4440,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2">
         <v>16</v>
@@ -4348,10 +4452,10 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2">
         <v>16</v>
@@ -4362,7 +4466,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="I23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J23" s="2">
         <v>5</v>
@@ -4373,7 +4477,7 @@
     </row>
     <row r="24" spans="3:11">
       <c r="I24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J24" s="2">
         <v>12</v>
@@ -4384,7 +4488,7 @@
     </row>
     <row r="25" spans="3:11">
       <c r="I25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2">
         <v>4</v>
@@ -4395,7 +4499,7 @@
     </row>
     <row r="26" spans="3:11">
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J26" s="2">
         <v>18</v>
@@ -4406,7 +4510,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2">
         <v>16</v>
@@ -4418,10 +4522,10 @@
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J28" s="2">
         <v>16</v>
@@ -4432,7 +4536,7 @@
     </row>
     <row r="29" spans="3:11">
       <c r="I29" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J29" s="2">
         <v>5</v>
@@ -4443,7 +4547,7 @@
     </row>
     <row r="30" spans="3:11">
       <c r="I30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2">
         <v>12</v>
@@ -4454,7 +4558,7 @@
     </row>
     <row r="31" spans="3:11">
       <c r="I31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J31" s="2">
         <v>4</v>
@@ -4465,7 +4569,7 @@
     </row>
     <row r="32" spans="3:11">
       <c r="I32" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J32" s="2">
         <v>18</v>
@@ -4476,7 +4580,7 @@
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2">
         <v>16</v>
@@ -4488,10 +4592,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J34" s="2">
         <v>16</v>
@@ -4502,7 +4606,7 @@
     </row>
     <row r="35" spans="3:11">
       <c r="I35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J35" s="2">
         <v>5</v>
@@ -4513,7 +4617,7 @@
     </row>
     <row r="36" spans="3:11">
       <c r="I36" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J36" s="2">
         <v>12</v>
@@ -4524,7 +4628,7 @@
     </row>
     <row r="37" spans="3:11">
       <c r="I37" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J37" s="2">
         <v>4</v>
@@ -4535,7 +4639,7 @@
     </row>
     <row r="38" spans="3:11">
       <c r="I38" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J38" s="2">
         <v>18</v>
@@ -4546,7 +4650,7 @@
     </row>
     <row r="40" spans="3:11">
       <c r="C40" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -4558,10 +4662,10 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J40" s="2">
         <v>16</v>
@@ -4572,7 +4676,7 @@
     </row>
     <row r="41" spans="3:11">
       <c r="I41" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J41" s="2">
         <v>5</v>
@@ -4583,7 +4687,7 @@
     </row>
     <row r="42" spans="3:11">
       <c r="I42" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J42" s="2">
         <v>12</v>
@@ -4594,7 +4698,7 @@
     </row>
     <row r="43" spans="3:11">
       <c r="I43" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J43" s="2">
         <v>4</v>
@@ -4605,7 +4709,7 @@
     </row>
     <row r="44" spans="3:11">
       <c r="I44" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J44" s="2">
         <v>18</v>
@@ -4616,7 +4720,7 @@
     </row>
     <row r="46" spans="3:11">
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -4628,10 +4732,10 @@
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J46" s="2">
         <v>16</v>
@@ -4642,7 +4746,7 @@
     </row>
     <row r="47" spans="3:11">
       <c r="I47" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J47" s="2">
         <v>5</v>
@@ -4653,7 +4757,7 @@
     </row>
     <row r="48" spans="3:11">
       <c r="I48" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J48" s="2">
         <v>12</v>
@@ -4664,7 +4768,7 @@
     </row>
     <row r="49" spans="3:11">
       <c r="I49" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J49" s="2">
         <v>4</v>
@@ -4675,7 +4779,7 @@
     </row>
     <row r="50" spans="3:11">
       <c r="I50" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J50" s="2">
         <v>18</v>
@@ -4686,7 +4790,7 @@
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D52" s="2">
         <v>16</v>
@@ -4698,10 +4802,10 @@
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J52" s="2">
         <v>16</v>
@@ -4712,7 +4816,7 @@
     </row>
     <row r="53" spans="3:11">
       <c r="I53" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J53" s="2">
         <v>5</v>
@@ -4723,7 +4827,7 @@
     </row>
     <row r="54" spans="3:11">
       <c r="I54" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J54" s="2">
         <v>12</v>
@@ -4734,7 +4838,7 @@
     </row>
     <row r="55" spans="3:11">
       <c r="I55" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J55" s="2">
         <v>4</v>
@@ -4745,7 +4849,7 @@
     </row>
     <row r="56" spans="3:11">
       <c r="I56" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J56" s="2">
         <v>18</v>
@@ -4756,7 +4860,7 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4768,10 +4872,10 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J58" s="2">
         <v>16</v>
@@ -4782,7 +4886,7 @@
     </row>
     <row r="59" spans="3:11">
       <c r="I59" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J59" s="2">
         <v>5</v>
@@ -4793,7 +4897,7 @@
     </row>
     <row r="60" spans="3:11">
       <c r="I60" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J60" s="2">
         <v>12</v>
@@ -4804,7 +4908,7 @@
     </row>
     <row r="61" spans="3:11">
       <c r="I61" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J61" s="2">
         <v>4</v>
@@ -4815,7 +4919,7 @@
     </row>
     <row r="62" spans="3:11">
       <c r="I62" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J62" s="2">
         <v>18</v>
@@ -4896,10 +5000,10 @@
     </row>
     <row r="4" spans="2:12" ht="47.25">
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2">
         <v>12</v>
@@ -4911,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -4921,10 +5025,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -4942,12 +5046,12 @@
         <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2">
         <v>12</v>
@@ -4959,17 +5063,17 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -4979,13 +5083,13 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4995,18 +5099,18 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D9" s="2">
         <v>12</v>
@@ -5018,17 +5122,17 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -5039,13 +5143,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -5055,18 +5159,18 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2">
         <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="C12" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D12" s="2">
         <v>12</v>
@@ -5078,17 +5182,17 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -5098,13 +5202,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -5114,18 +5218,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="C15" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -5137,17 +5241,17 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <v>16</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -5158,13 +5262,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -5174,18 +5278,18 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2">
         <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2">
         <v>12</v>
@@ -5197,17 +5301,17 @@
         <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J18">
         <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -5217,13 +5321,13 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -5233,18 +5337,18 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2">
         <v>12</v>
@@ -5256,17 +5360,17 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="3:11">
@@ -5277,18 +5381,18 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>37</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2">
         <v>12</v>
@@ -5300,17 +5404,17 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>8</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -5320,18 +5424,18 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D25" s="2">
         <v>12</v>
@@ -5343,17 +5447,17 @@
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>32</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="3:11">
@@ -5364,13 +5468,13 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="3:11">
@@ -5380,18 +5484,18 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J27" s="2">
         <v>33</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D28" s="2">
         <v>12</v>
@@ -5403,17 +5507,17 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="3:11">
@@ -5423,13 +5527,13 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J29">
         <v>33</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5441,20 +5545,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L71"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
     <col min="12" max="12" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5502,10 +5609,10 @@
     </row>
     <row r="4" spans="2:12" ht="46.5" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -5513,18 +5620,24 @@
       <c r="E4" s="2">
         <v>303</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -5538,7 +5651,12 @@
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
@@ -5551,72 +5669,119 @@
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:12">
+      <c r="C8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>303</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
         <v>16</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
       <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>303</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="C13" s="2"/>
@@ -5626,45 +5791,83 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>303</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -5672,16 +5875,22 @@
       <c r="E18" s="2">
         <v>303</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="2"/>
@@ -5691,9 +5900,14 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="2"/>
@@ -5703,36 +5917,66 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="I21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="3:11">
+      <c r="C22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>303</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="2" t="s">
-        <v>218</v>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -5740,16 +5984,22 @@
       <c r="E24" s="2">
         <v>303</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="J24" s="2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="2"/>
@@ -5759,9 +6009,14 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="2"/>
@@ -5771,62 +6026,771 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="I27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="3:11">
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>303</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>16</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>303</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>303</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="2">
+        <v>16</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="3.875" customWidth="1"/>
+    <col min="12" max="12" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="2">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="2">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="2">
+        <v>8</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="2">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" s="2">
+        <v>17</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="2">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1704</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2">
-        <v>303</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>1704</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="2"/>
@@ -5836,9 +6800,14 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="2"/>
@@ -5848,417 +6817,14 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11">
-      <c r="I34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="3:11">
-      <c r="I35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="3:11">
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="3:11">
-      <c r="C37" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="2">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2">
-        <v>303</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="3:11">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="3:11">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="3:11">
-      <c r="I40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="3:11">
-      <c r="I41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="3:11">
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="2">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2">
-        <v>303</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="3:11">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="3:11">
-      <c r="I47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="3:11">
-      <c r="I48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="3:11">
-      <c r="C49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="3:11">
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="3:11">
-      <c r="C51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="2">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2">
-        <v>303</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="3:11">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="3:11">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="3:11">
-      <c r="I54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="3:11">
-      <c r="I55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="3:11">
-      <c r="C56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="3:11">
-      <c r="C57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="I57" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="3:11">
-      <c r="C58" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="2">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2">
-        <v>303</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="3:11">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="3:11">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="3:11">
-      <c r="I61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="3:11">
-      <c r="I62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="3:11">
-      <c r="C63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="3:11">
-      <c r="C64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="3:11">
-      <c r="C65" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="2">
-        <v>10</v>
-      </c>
-      <c r="E65" s="2">
-        <v>303</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="3:11">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="3:11">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="3:11">
-      <c r="I68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="3:11">
-      <c r="I69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="C70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="C71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K71" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="J33" s="2">
+        <v>16</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6267,7 +6833,626 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="46.5" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="2">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>16</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="2">
+        <v>16</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K65"/>
   <sheetViews>
@@ -6331,10 +7516,10 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -6346,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -6380,7 +7565,7 @@
     <row r="6" spans="2:11">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -6392,11 +7577,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2">
         <v>4</v>
@@ -6407,7 +7592,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -6419,11 +7604,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -6434,7 +7619,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
@@ -6446,11 +7631,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -6469,7 +7654,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
@@ -6481,11 +7666,11 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -6496,7 +7681,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
@@ -6508,11 +7693,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -6523,7 +7708,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
@@ -6535,11 +7720,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -6550,7 +7735,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2">
         <v>20</v>
@@ -6562,11 +7747,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -6577,7 +7762,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2">
         <v>20</v>
@@ -6589,11 +7774,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -6612,7 +7797,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -6624,11 +7809,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -6803,7 +7988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
@@ -6866,10 +8051,10 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>17</v>
@@ -6881,7 +8066,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -6915,7 +8100,7 @@
     <row r="6" spans="2:11">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -6927,11 +8112,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -6942,7 +8127,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>17</v>
@@ -6954,11 +8139,11 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -6975,7 +8160,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -6986,7 +8171,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>17</v>
@@ -6998,11 +8183,11 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -7019,7 +8204,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -7030,7 +8215,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
         <v>17</v>
@@ -7042,11 +8227,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -7057,7 +8242,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2">
         <v>17</v>
@@ -7069,11 +8254,11 @@
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -7090,7 +8275,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -7101,7 +8286,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2">
         <v>17</v>
@@ -7113,11 +8298,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -7134,7 +8319,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -7145,7 +8330,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2">
         <v>17</v>
@@ -7157,11 +8342,11 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -7178,7 +8363,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -7189,7 +8374,7 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2">
         <v>17</v>
@@ -7201,11 +8386,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -7216,7 +8401,7 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2">
         <v>17</v>
@@ -7228,11 +8413,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -7244,5 +8429,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/faults-dingding/debugging.xlsx
+++ b/faults-dingding/debugging.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="330">
   <si>
     <t>Fault</t>
   </si>
@@ -2872,69 +2872,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>count:</t>
-  </si>
-  <si>
-    <t>case7 : 0-5 2-5</t>
-  </si>
-  <si>
-    <t>case8 : 4-2 5-2</t>
-  </si>
-  <si>
-    <t>case9 : 0-1 1-1</t>
-  </si>
-  <si>
-    <t>///////////////////////////////////////////////</t>
-  </si>
-  <si>
-    <t>station:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case10: </t>
-  </si>
-  <si>
-    <t>shanghai &amp; nanjing - xuzhou &amp; shanghaihongqiao</t>
-  </si>
-  <si>
-    <t>case11:</t>
-  </si>
-  <si>
-    <t>shanghai &amp; nanjing - shanghaihongqiao &amp; jinan</t>
-  </si>
-  <si>
-    <t>case12:</t>
-  </si>
-  <si>
-    <t>count&amp;station:</t>
-  </si>
-  <si>
-    <t>case4:</t>
-  </si>
-  <si>
-    <t>4 shanghai &amp; nanjing - 1 beijing &amp; beijing</t>
-  </si>
-  <si>
-    <t>2 shanghia &amp; nanjing - 1 beijing &amp; beijing</t>
-  </si>
-  <si>
-    <t>case5:</t>
-  </si>
-  <si>
-    <t>4 shanghai &amp; nanjing - 0 xuzhou &amp; beijing</t>
-  </si>
-  <si>
-    <t>2 shanghai &amp; nanjing - 0 xuzhou &amp; beijing</t>
-  </si>
-  <si>
-    <t>case6:</t>
-  </si>
-  <si>
-    <t>1 shanghai &amp; nanjing - 1 jinan &amp; hangzhou</t>
-  </si>
-  <si>
-    <t>6 shanghai &amp; nanjing - 1 jinan &amp; hangzhou</t>
-  </si>
-  <si>
     <t>A1(0.33h)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2980,6 +2917,62 @@
   </si>
   <si>
     <t>Can locate the Cancel Service is wrong and cannot execute drawback.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3(0.32h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(0.24h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(0.3h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6(0.3h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7(0.26h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8(0.31h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9(0.32h)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10(0.2h)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3715,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3777,25 +3770,35 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="46.5" customHeight="1">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>398</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12">
@@ -3806,26 +3809,37 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>398</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3837,20 +3851,30 @@
     </row>
     <row r="8" spans="2:12">
       <c r="C8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>398</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="C9" s="2"/>
@@ -3859,22 +3883,35 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>398</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
       <c r="C11" s="2"/>
@@ -3884,24 +3921,35 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:12">
       <c r="C12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>398</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="C13" s="2"/>
@@ -3910,22 +3958,35 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>398</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="C15" s="2"/>
@@ -3935,24 +3996,35 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="C16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>398</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>170</v>
+        <v>326</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="2"/>
@@ -3962,25 +4034,34 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>398</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="2"/>
@@ -3989,22 +4070,35 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>398</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="2"/>
@@ -4014,182 +4108,35 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>398</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="3:11">
-      <c r="C32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11">
-      <c r="C34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4202,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -5752,7 +5699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -8256,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L64"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8742,136 +8689,6 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="3:12">
-      <c r="C28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>324</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -8883,7 +8700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -8961,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -8971,10 +8788,10 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -9002,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -9039,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
@@ -9076,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
@@ -9114,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -9151,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -9189,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -9226,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -9263,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
@@ -9301,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
